--- a/tables/supplementary_table_1.xlsx
+++ b/tables/supplementary_table_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonmifsud/Documents/GitHub/phd/p5_marine_mammal/manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonmifsud/Documents/GitHub/phd/p5_marine_mammal/submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9921B-1BE2-F341-BB7A-767F0B01F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2832E85B-AF2C-5845-8FF2-5ACE5732AA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="2120" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{F3DF7935-7692-3645-BC58-FD5953888C92}"/>
+    <workbookView xWindow="9000" yWindow="2120" windowWidth="26840" windowHeight="15940" xr2:uid="{F3DF7935-7692-3645-BC58-FD5953888C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Library_summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
   <si>
     <t>SL1</t>
   </si>
@@ -81,9 +81,6 @@
     <t>SL22</t>
   </si>
   <si>
-    <t>SRRXXX</t>
-  </si>
-  <si>
     <t>liver</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Number Contigs</t>
   </si>
   <si>
-    <t>Supplementary Table 1. Sample collection and library details</t>
-  </si>
-  <si>
     <t>Liver</t>
   </si>
   <si>
@@ -184,6 +178,54 @@
   </si>
   <si>
     <t>Skin ulcer</t>
+  </si>
+  <si>
+    <t>SRR25928111</t>
+  </si>
+  <si>
+    <t>SRR25928106</t>
+  </si>
+  <si>
+    <t>SRR25928105</t>
+  </si>
+  <si>
+    <t>SRR25928104</t>
+  </si>
+  <si>
+    <t>SRR25928103</t>
+  </si>
+  <si>
+    <t>SRR25928102</t>
+  </si>
+  <si>
+    <t>SRR25928100</t>
+  </si>
+  <si>
+    <t>SRR25928099</t>
+  </si>
+  <si>
+    <t>SRR25928110</t>
+  </si>
+  <si>
+    <t>SRR25928109</t>
+  </si>
+  <si>
+    <t>SRR25928108</t>
+  </si>
+  <si>
+    <t>SRR25928107</t>
+  </si>
+  <si>
+    <t>SRR25928112</t>
+  </si>
+  <si>
+    <t>SRR25928101</t>
+  </si>
+  <si>
+    <t>Supplementary Table 1. Library summary</t>
+  </si>
+  <si>
+    <t>Supplementary Table 1. Sample collection summary</t>
   </si>
 </sst>
 </file>
@@ -622,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7745BD0F-953A-FF41-A19A-3564836BE15B}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,27 +680,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -666,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -686,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -706,10 +748,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -726,10 +768,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -746,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -766,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -786,10 +828,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -806,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -826,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -846,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -866,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -886,10 +928,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -906,10 +948,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -926,10 +968,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -956,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEEAA7E-6508-AD46-BDCF-84030997A3CA}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,18 +1010,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -990,7 +1032,7 @@
         <v>13161.1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1001,7 +1043,7 @@
         <v>8825.1</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1012,7 +1054,7 @@
         <v>12634.1</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1023,7 +1065,7 @@
         <v>8227.1</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1034,7 +1076,7 @@
         <v>8795.1</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1045,7 +1087,7 @@
         <v>14236.1</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1056,7 +1098,7 @@
         <v>12561.1</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1067,7 +1109,7 @@
         <v>14074.1</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1078,7 +1120,7 @@
         <v>14213.1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1089,7 +1131,7 @@
         <v>14214.1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -1101,7 +1143,7 @@
         <v>14074.1</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1113,7 +1155,7 @@
         <v>14213.1</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1125,7 +1167,7 @@
         <v>14214.1</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -1137,7 +1179,7 @@
         <v>13161.1</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -1149,7 +1191,7 @@
         <v>12634.1</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -1161,7 +1203,7 @@
         <v>14236.1</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -1173,7 +1215,7 @@
         <v>12561.1</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -1185,7 +1227,7 @@
         <v>14575</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -1197,7 +1239,7 @@
         <v>14074.1</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J21" s="3"/>
     </row>
@@ -1209,7 +1251,7 @@
         <v>14213.1</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1220,7 +1262,7 @@
         <v>14214.1</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1231,7 +1273,7 @@
         <v>13161.1</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1242,7 +1284,7 @@
         <v>8795.1</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1253,7 +1295,7 @@
         <v>14236.1</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1264,7 +1306,7 @@
         <v>12561.1</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1275,7 +1317,7 @@
         <v>14575</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1286,7 +1328,7 @@
         <v>12561</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1297,7 +1339,7 @@
         <v>14575</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1308,7 +1350,7 @@
         <v>10741</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1319,7 +1361,7 @@
         <v>10594.1</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1330,7 +1372,7 @@
         <v>14575</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1341,7 +1383,7 @@
         <v>10741.1</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1352,7 +1394,7 @@
         <v>3254</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1363,7 +1405,7 @@
         <v>10741</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1374,7 +1416,7 @@
         <v>32514</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1385,18 +1427,18 @@
         <v>10594.1</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>12634</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1407,7 +1449,7 @@
         <v>14364</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1418,7 +1460,7 @@
         <v>14575</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1429,7 +1471,7 @@
         <v>14575</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
